--- a/data_procesada/D_LR_TC_G2.xlsx
+++ b/data_procesada/D_LR_TC_G2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fddd45b615868053/Documents/GitHub/RadonRose/data_procesada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D99323-C581-4531-8781-471A43EB0FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B1D99323-C581-4531-8781-471A43EB0FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4C6486-8186-43F0-851E-FDD3B3597097}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{B08BDF59-98AF-44DE-A6B6-A47ADBE837F2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B08BDF59-98AF-44DE-A6B6-A47ADBE837F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lectura" sheetId="1" r:id="rId1"/>
@@ -1456,7 +1456,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{71E3764D-D4CE-499C-9728-6C8AC833D443}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6916D6C1-9A7F-49A5-ABD9-9CC0996A4EE3}"/>
@@ -1593,7 +1593,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1655,7 +1655,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2125,7 +2125,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2162,7 +2162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1323548064"/>
@@ -2244,7 +2244,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2276,7 +2276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1323545984"/>
@@ -2318,7 +2318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2352,7 +2352,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2366,7 +2366,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2428,7 +2428,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2687,7 +2687,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2724,7 +2724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1323548064"/>
@@ -2806,7 +2806,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2838,7 +2838,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1323545984"/>
@@ -2880,7 +2880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2917,7 +2917,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4082,7 +4082,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4383,33 +4383,33 @@
   </sheetPr>
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.5546875" style="11"/>
+    <col min="9" max="9" width="29.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.54296875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="72" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="Q1" s="73"/>
       <c r="R1" s="74"/>
     </row>
-    <row r="2" spans="1:24" ht="45.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="46" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>67</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>68</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>76</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>77</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>80</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>81</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>82</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>83</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>87</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>84</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>85</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>86</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>88</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>89</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>90</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>91</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>92</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>93</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>94</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>95</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>96</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>97</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>78</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>79</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27" s="15"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
@@ -5542,7 +5542,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>58</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>60</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>61</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>62</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>63</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B34" s="15"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
@@ -5816,7 +5816,7 @@
         <v>39.973333333333336</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B35" s="15"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
@@ -5832,7 +5832,7 @@
         <v>10.443333333333333</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>46</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>47</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>49</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>50</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>51</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>52</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>53</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>54</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>55</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>56</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="M47" s="11"/>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>57</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>57</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>57</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B51" s="15"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
@@ -6470,7 +6470,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B52" s="15"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
@@ -6480,7 +6480,7 @@
       <c r="H52" s="16"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B53" s="15"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
@@ -6490,7 +6490,7 @@
       <c r="H53" s="16"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="7"/>
@@ -6501,7 +6501,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B55" s="15"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
@@ -6511,7 +6511,7 @@
       <c r="H55" s="16"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B56" s="15"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
@@ -6521,7 +6521,7 @@
       <c r="H56" s="16"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B57" s="15"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
@@ -6531,7 +6531,7 @@
       <c r="H57" s="16"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -6540,7 +6540,7 @@
       <c r="G58" s="15"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B59" s="15"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
@@ -6550,7 +6550,7 @@
       <c r="H59" s="16"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="7"/>
@@ -6561,7 +6561,7 @@
       <c r="I60" s="10"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="7"/>
@@ -6572,7 +6572,7 @@
       <c r="I61" s="10"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B62" s="15"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
@@ -6582,7 +6582,7 @@
       <c r="H62" s="16"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="7"/>
@@ -6593,7 +6593,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B64" s="15"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
@@ -6603,7 +6603,7 @@
       <c r="H64" s="16"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
@@ -6613,7 +6613,7 @@
       <c r="H65" s="16"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="7"/>
@@ -6703,15 +6703,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="19" customWidth="1"/>
-    <col min="3" max="5" width="16.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="19"/>
+    <col min="1" max="1" width="11.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="19" customWidth="1"/>
+    <col min="3" max="5" width="16.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.54296875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="77" t="s">
         <v>28</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A2" s="78"/>
       <c r="B2" s="32" t="s">
         <v>20</v>
@@ -6743,7 +6743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>5.1999999999999995E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>23</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40" t="s">
         <v>27</v>
       </c>
@@ -6798,9 +6798,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:5" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="75" t="s">
         <v>30</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="76"/>
       <c r="B9" s="34" t="s">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>29</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="40" t="s">
         <v>23</v>
       </c>
@@ -6842,9 +6842,9 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>41</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>38</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="40" t="s">
         <v>39</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:A9"/>
@@ -6898,28 +6898,28 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="8.44140625" style="11"/>
+    <col min="1" max="1" width="5.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="8.453125" style="11"/>
     <col min="25" max="25" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.44140625" style="11"/>
+    <col min="26" max="16384" width="8.453125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>100</v>
       </c>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="R1" s="83"/>
     </row>
-    <row r="2" spans="1:18" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>102</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>494.6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>287.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>654.6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>238.2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>838.9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>299.3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>241.2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>60.67</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>235.1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>60.99</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>232.8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>75.06</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>682.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>239.7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>696.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>897.2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>251.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>659.8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>300.89999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>741.6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -8325,15 +8325,15 @@
       <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="31" width="11.5546875" style="4"/>
-    <col min="32" max="16384" width="11.5546875" style="6"/>
+    <col min="2" max="16" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="31" width="11.54296875" style="4"/>
+    <col min="32" max="16384" width="11.54296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>0.995</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>100</v>
       </c>
